--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125112a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125112a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -488,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +532,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.953907401684252</v>
+      </c>
+      <c r="D5">
+        <v>3.004963919194877</v>
+      </c>
+      <c r="E5">
+        <v>2.955106125283748</v>
+      </c>
+      <c r="F5">
+        <v>4.405259746547625</v>
+      </c>
+      <c r="G5">
+        <v>4.954119956677116</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -562,19 +559,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.953907401684252</v>
+        <v>3.251326975207322</v>
       </c>
       <c r="D6">
-        <v>3.004963919194877</v>
+        <v>3.142526049381858</v>
       </c>
       <c r="E6">
-        <v>2.955106125283748</v>
+        <v>3.450926834724299</v>
       </c>
       <c r="F6">
-        <v>4.405259746547625</v>
+        <v>4.214256138940661</v>
       </c>
       <c r="G6">
-        <v>4.954119956677116</v>
+        <v>5.127803441701289</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -585,25 +582,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.251326975207322</v>
+        <v>3.472405884896879</v>
       </c>
       <c r="D7">
-        <v>3.142526049381858</v>
+        <v>3.494230066991411</v>
       </c>
       <c r="E7">
-        <v>3.450926834724299</v>
+        <v>3.387251799127518</v>
       </c>
       <c r="F7">
-        <v>4.214256138940661</v>
+        <v>5.016890460836307</v>
       </c>
       <c r="G7">
-        <v>5.127803441701289</v>
+        <v>5.619277845753015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.080825152708778</v>
+      </c>
+      <c r="D8">
+        <v>3.100501091281799</v>
+      </c>
+      <c r="E8">
+        <v>3.26233237062128</v>
+      </c>
+      <c r="F8">
+        <v>3.965877667276049</v>
+      </c>
+      <c r="G8">
+        <v>4.945209671683245</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -613,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.472405884896879</v>
+        <v>6.615798632986992</v>
       </c>
       <c r="D9">
-        <v>3.494230066991411</v>
+        <v>7.373470099044899</v>
       </c>
       <c r="E9">
-        <v>3.387251799127518</v>
+        <v>7.851354474693966</v>
       </c>
       <c r="F9">
-        <v>5.016890460836307</v>
+        <v>8.764731787175606</v>
       </c>
       <c r="G9">
-        <v>5.619277845753015</v>
+        <v>11.39427425685758</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -636,19 +651,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.080825152708778</v>
+        <v>3.345372745443988</v>
       </c>
       <c r="D10">
-        <v>3.100501091281799</v>
+        <v>3.338032251644941</v>
       </c>
       <c r="E10">
-        <v>3.26233237062128</v>
+        <v>3.427033142349611</v>
       </c>
       <c r="F10">
-        <v>3.965877667276049</v>
+        <v>4.370506121858498</v>
       </c>
       <c r="G10">
-        <v>4.945209671683245</v>
+        <v>5.369233297931521</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -659,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.615798632986992</v>
+        <v>4.535112826371448</v>
       </c>
       <c r="D11">
-        <v>7.373470099044899</v>
+        <v>3.972573899891473</v>
       </c>
       <c r="E11">
-        <v>7.851354474693966</v>
+        <v>4.782580119392595</v>
       </c>
       <c r="F11">
-        <v>8.764731787175606</v>
+        <v>6.441283522841831</v>
       </c>
       <c r="G11">
-        <v>11.39427425685758</v>
+        <v>7.126788390774474</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -682,25 +697,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.345372745443988</v>
+        <v>4.388297262398345</v>
       </c>
       <c r="D12">
-        <v>3.338032251644941</v>
+        <v>4.617831979966202</v>
       </c>
       <c r="E12">
-        <v>3.427033142349611</v>
+        <v>4.609102016655728</v>
       </c>
       <c r="F12">
-        <v>4.370506121858498</v>
+        <v>6.828105632805682</v>
       </c>
       <c r="G12">
-        <v>5.369233297931521</v>
+        <v>7.267025881232853</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6.315140063215019</v>
+      </c>
+      <c r="D13">
+        <v>7.055774957650047</v>
+      </c>
+      <c r="E13">
+        <v>6.65510635886636</v>
+      </c>
+      <c r="F13">
+        <v>9.180391157304816</v>
+      </c>
+      <c r="G13">
+        <v>10.85885312810012</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -710,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.535112826371448</v>
+        <v>4.679449202439127</v>
       </c>
       <c r="D14">
-        <v>3.972573899891473</v>
+        <v>5.543342727088651</v>
       </c>
       <c r="E14">
-        <v>4.782580119392595</v>
+        <v>5.154806995422446</v>
       </c>
       <c r="F14">
-        <v>6.441283522841831</v>
+        <v>6.899103966842196</v>
       </c>
       <c r="G14">
-        <v>7.126788390774474</v>
+        <v>7.903166335749981</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -733,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.388297262398345</v>
+        <v>4.37876219247515</v>
       </c>
       <c r="D15">
-        <v>4.617831979966202</v>
+        <v>4.501140668740139</v>
       </c>
       <c r="E15">
-        <v>4.609102016655728</v>
+        <v>4.461142186425127</v>
       </c>
       <c r="F15">
-        <v>6.828105632805682</v>
+        <v>5.474274512719822</v>
       </c>
       <c r="G15">
-        <v>7.267025881232853</v>
+        <v>7.178391954926012</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -756,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.315140063215019</v>
+        <v>6.225547072794506</v>
       </c>
       <c r="D16">
-        <v>7.055774957650047</v>
+        <v>8.408440692277869</v>
       </c>
       <c r="E16">
-        <v>6.65510635886636</v>
+        <v>8.63845716751349</v>
       </c>
       <c r="F16">
-        <v>9.180391157304816</v>
+        <v>7.136490905572484</v>
       </c>
       <c r="G16">
-        <v>10.85885312810012</v>
+        <v>11.94688570425409</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -779,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.679449202439127</v>
+        <v>3.511200420436341</v>
       </c>
       <c r="D17">
-        <v>5.543342727088651</v>
+        <v>3.758338219406308</v>
       </c>
       <c r="E17">
-        <v>5.154806995422446</v>
+        <v>4.357446403007344</v>
       </c>
       <c r="F17">
-        <v>6.899103966842196</v>
+        <v>4.643850203484887</v>
       </c>
       <c r="G17">
-        <v>7.903166335749981</v>
+        <v>6.233715286533127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -802,25 +835,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.37876219247515</v>
+        <v>6.863268833372501</v>
       </c>
       <c r="D18">
-        <v>4.501140668740139</v>
+        <v>6.746252091194101</v>
       </c>
       <c r="E18">
-        <v>4.461142186425127</v>
+        <v>6.901263305880133</v>
       </c>
       <c r="F18">
-        <v>5.474274512719822</v>
+        <v>9.493874688575863</v>
       </c>
       <c r="G18">
-        <v>7.178391954926012</v>
+        <v>10.78614649155732</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>7.214135766060705</v>
+      </c>
+      <c r="D19">
+        <v>6.905258931049532</v>
+      </c>
+      <c r="E19">
+        <v>6.641064014845989</v>
+      </c>
+      <c r="F19">
+        <v>11.00605412228819</v>
+      </c>
+      <c r="G19">
+        <v>11.38857793143227</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -830,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.225547072794506</v>
+        <v>4.664179021190947</v>
       </c>
       <c r="D20">
-        <v>8.408440692277869</v>
+        <v>4.283518212524426</v>
       </c>
       <c r="E20">
-        <v>8.63845716751349</v>
+        <v>4.572618532600361</v>
       </c>
       <c r="F20">
-        <v>7.136490905572484</v>
+        <v>7.520961309671004</v>
       </c>
       <c r="G20">
-        <v>11.94688570425409</v>
+        <v>7.379949679170362</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -853,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.511200420436341</v>
+        <v>10.08069510185844</v>
       </c>
       <c r="D21">
-        <v>3.758338219406308</v>
+        <v>8.705379372177205</v>
       </c>
       <c r="E21">
-        <v>4.357446403007344</v>
+        <v>8.295202692977945</v>
       </c>
       <c r="F21">
-        <v>4.643850203484887</v>
+        <v>14.9508883346579</v>
       </c>
       <c r="G21">
-        <v>6.233715286533127</v>
+        <v>13.73816834786655</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -876,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.863268833372501</v>
+        <v>7.961818728750428</v>
       </c>
       <c r="D22">
-        <v>6.746252091194101</v>
+        <v>6.983015224658598</v>
       </c>
       <c r="E22">
-        <v>6.901263305880133</v>
+        <v>6.90364755504679</v>
       </c>
       <c r="F22">
-        <v>9.493874688575863</v>
+        <v>13.58895940042567</v>
       </c>
       <c r="G22">
-        <v>10.78614649155732</v>
+        <v>10.76020487352063</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -899,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.214135766060705</v>
+        <v>2.448642638264714</v>
       </c>
       <c r="D23">
-        <v>6.905258931049532</v>
+        <v>2.373041585422043</v>
       </c>
       <c r="E23">
-        <v>6.641064014845989</v>
+        <v>2.464967934659516</v>
       </c>
       <c r="F23">
-        <v>11.00605412228819</v>
+        <v>3.249056599530313</v>
       </c>
       <c r="G23">
-        <v>11.38857793143227</v>
+        <v>3.944467862047856</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -922,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.664179021190947</v>
+        <v>6.622908022597334</v>
       </c>
       <c r="D24">
-        <v>4.283518212524426</v>
+        <v>8.459336676471578</v>
       </c>
       <c r="E24">
-        <v>4.572618532600361</v>
+        <v>10.3696545510829</v>
       </c>
       <c r="F24">
-        <v>7.520961309671004</v>
+        <v>9.136411516141299</v>
       </c>
       <c r="G24">
-        <v>7.379949679170362</v>
+        <v>13.33783339029868</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -945,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.08069510185844</v>
+        <v>5.522789431012879</v>
       </c>
       <c r="D25">
-        <v>8.705379372177205</v>
+        <v>5.492982271076401</v>
       </c>
       <c r="E25">
-        <v>8.295202692977945</v>
+        <v>6.028919141828802</v>
       </c>
       <c r="F25">
-        <v>14.9508883346579</v>
+        <v>7.859051621004168</v>
       </c>
       <c r="G25">
-        <v>13.73816834786655</v>
+        <v>9.723383068034225</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -968,25 +1019,43 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>7.961818728750428</v>
+        <v>4.015529666937296</v>
       </c>
       <c r="D26">
-        <v>6.983015224658598</v>
+        <v>4.421880891890649</v>
       </c>
       <c r="E26">
-        <v>6.90364755504679</v>
+        <v>4.804032555088293</v>
       </c>
       <c r="F26">
-        <v>13.58895940042567</v>
+        <v>5.938783541564656</v>
       </c>
       <c r="G26">
-        <v>10.76020487352063</v>
+        <v>7.298863296786712</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>4.474942488036984</v>
+      </c>
+      <c r="D27">
+        <v>4.526523779914926</v>
+      </c>
+      <c r="E27">
+        <v>4.226298514384259</v>
+      </c>
+      <c r="F27">
+        <v>6.026815640927523</v>
+      </c>
+      <c r="G27">
+        <v>6.712346631536481</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
@@ -996,144 +1065,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.448642638264714</v>
+        <v>5.200282769582456</v>
       </c>
       <c r="D28">
-        <v>2.373041585422043</v>
+        <v>4.835981099952533</v>
       </c>
       <c r="E28">
-        <v>2.464967934659516</v>
+        <v>4.435039137432269</v>
       </c>
       <c r="F28">
-        <v>3.249056599530313</v>
+        <v>7.692706088536873</v>
       </c>
       <c r="G28">
-        <v>3.944467862047856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>6.622908022597334</v>
-      </c>
-      <c r="D29">
-        <v>8.459336676471578</v>
-      </c>
-      <c r="E29">
-        <v>10.3696545510829</v>
-      </c>
-      <c r="F29">
-        <v>9.136411516141299</v>
-      </c>
-      <c r="G29">
-        <v>13.33783339029868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>5.522789431012879</v>
-      </c>
-      <c r="D30">
-        <v>5.492982271076401</v>
-      </c>
-      <c r="E30">
-        <v>6.028919141828802</v>
-      </c>
-      <c r="F30">
-        <v>7.859051621004168</v>
-      </c>
-      <c r="G30">
-        <v>9.723383068034225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>4.015529666937296</v>
-      </c>
-      <c r="D31">
-        <v>4.421880891890649</v>
-      </c>
-      <c r="E31">
-        <v>4.804032555088293</v>
-      </c>
-      <c r="F31">
-        <v>5.938783541564656</v>
-      </c>
-      <c r="G31">
-        <v>7.298863296786712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>4.474942488036984</v>
-      </c>
-      <c r="D32">
-        <v>4.526523779914926</v>
-      </c>
-      <c r="E32">
-        <v>4.226298514384259</v>
-      </c>
-      <c r="F32">
-        <v>6.026815640927523</v>
-      </c>
-      <c r="G32">
-        <v>6.712346631536481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>5.200282769582456</v>
-      </c>
-      <c r="D33">
-        <v>4.835981099952533</v>
-      </c>
-      <c r="E33">
-        <v>4.435039137432269</v>
-      </c>
-      <c r="F33">
-        <v>7.692706088536873</v>
-      </c>
-      <c r="G33">
         <v>8.038506512857522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
